--- a/data/entsoe/ERAA 2022 PEMMDB National Estimates.xlsx
+++ b/data/entsoe/ERAA 2022 PEMMDB National Estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Shared Folders\ERAA 2022 - Report and Data - ACER Submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\entsoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED48F66-F112-4797-8BCF-E955C6795060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A532B306-4744-477B-8990-56BCBBC04DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CE1EC72-901F-494E-8BB1-5AC4653268D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="879" activeTab="9" xr2:uid="{0CE1EC72-901F-494E-8BB1-5AC4653268D1}"/>
   </bookViews>
   <sheets>
     <sheet name="TY2024" sheetId="20" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Explicit DSR'!$A$1:$Z$225</definedName>
     <definedName name="a" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="a" hidden="1">#REF!</definedName>
     <definedName name="aaa" localSheetId="0" hidden="1">#REF!</definedName>
@@ -959,11 +960,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _F_t_-;\-* #,##0\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ _F_t_-;\-* #,##0\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1515,16 +1516,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1562,7 +1563,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="7" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="7" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,13 +1598,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="7" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="7" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="7" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="7" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,13 +1617,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="7" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="7" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1646,7 +1647,7 @@
     <xf numFmtId="1" fontId="8" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1711,28 +1712,28 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1">
@@ -1745,10 +1746,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1"/>
@@ -1756,25 +1757,55 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="8" fillId="7" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="22" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="8" fillId="7" borderId="22" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1827,36 +1858,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
@@ -1888,7 +1889,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ZoneList"/>
@@ -2711,7 +2712,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Overview"/>
@@ -3034,7 +3035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4614E1-37C5-42E5-A863-54C11B634458}">
   <dimension ref="A3:BB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8099,10 +8100,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C05537C-F625-4982-862A-EDC178E68A3B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8194,7 +8196,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8202,7 +8204,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -8210,7 +8212,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8218,7 +8220,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -8226,7 +8228,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -8243,7 +8245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -8260,7 +8262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -8277,7 +8279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -8294,7 +8296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -8302,7 +8304,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -8310,7 +8312,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -8318,7 +8320,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -8326,7 +8328,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -8379,7 +8381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -8432,7 +8434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -8485,7 +8487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -8538,7 +8540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -8554,7 +8556,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -8562,7 +8564,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -8570,7 +8572,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -8578,7 +8580,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -8586,7 +8588,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -8594,7 +8596,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -8602,7 +8604,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -8610,7 +8612,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -8618,7 +8620,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -8626,7 +8628,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -8634,7 +8636,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -8642,7 +8644,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -8659,7 +8661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -8676,7 +8678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -8693,7 +8695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -8755,7 +8757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -8817,7 +8819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -8879,7 +8881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -8941,7 +8943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -8949,7 +8951,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -8957,7 +8959,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -8965,7 +8967,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -8981,7 +8983,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -8989,7 +8991,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -8997,7 +8999,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -9005,7 +9007,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -9013,7 +9015,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -9021,7 +9023,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -9029,7 +9031,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -9037,7 +9039,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -9045,7 +9047,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -9053,7 +9055,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -9061,7 +9063,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -9069,7 +9071,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -9086,7 +9088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -9103,7 +9105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -9120,7 +9122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -9137,7 +9139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -9145,7 +9147,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -9153,7 +9155,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -9161,7 +9163,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -9169,7 +9171,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -9240,7 +9242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -9311,7 +9313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -9382,7 +9384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -9453,7 +9455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -9470,7 +9472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -9487,7 +9489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -9504,7 +9506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -9521,7 +9523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -9538,7 +9540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -9555,7 +9557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -9572,7 +9574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -9589,7 +9591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -9597,7 +9599,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -9605,7 +9607,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -9613,7 +9615,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -9621,7 +9623,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -9638,7 +9640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -9655,7 +9657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -9672,7 +9674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -9689,7 +9691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -9697,7 +9699,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -9705,7 +9707,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -9713,7 +9715,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -9721,7 +9723,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -9773,7 +9775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -9799,7 +9801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -9825,7 +9827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -9896,7 +9898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -9967,7 +9969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -10109,7 +10111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -10117,7 +10119,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -10125,7 +10127,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -10133,7 +10135,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -10141,7 +10143,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -10149,7 +10151,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -10157,7 +10159,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -10165,7 +10167,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -10173,7 +10175,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>25</v>
       </c>
@@ -10181,7 +10183,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -10189,7 +10191,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -10197,7 +10199,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -10205,7 +10207,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -10213,7 +10215,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -10221,7 +10223,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -10229,7 +10231,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -10237,7 +10239,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -10245,7 +10247,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -10253,7 +10255,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -10261,7 +10263,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -10269,7 +10271,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -10277,7 +10279,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -10285,7 +10287,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>28</v>
       </c>
@@ -10293,7 +10295,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -10301,7 +10303,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>29</v>
       </c>
@@ -10318,7 +10320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>29</v>
       </c>
@@ -10335,7 +10337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>29</v>
       </c>
@@ -10352,7 +10354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>29</v>
       </c>
@@ -10369,7 +10371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>236</v>
       </c>
@@ -10377,7 +10379,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>236</v>
       </c>
@@ -10385,7 +10387,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>236</v>
       </c>
@@ -10393,7 +10395,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>236</v>
       </c>
@@ -10401,7 +10403,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>237</v>
       </c>
@@ -10409,7 +10411,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>237</v>
       </c>
@@ -10417,7 +10419,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>237</v>
       </c>
@@ -10425,7 +10427,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>237</v>
       </c>
@@ -10433,7 +10435,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -10450,7 +10452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -10467,7 +10469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -10484,7 +10486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -10501,7 +10503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>238</v>
       </c>
@@ -10509,7 +10511,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>238</v>
       </c>
@@ -10517,7 +10519,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>238</v>
       </c>
@@ -10525,7 +10527,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>238</v>
       </c>
@@ -10533,7 +10535,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -10577,7 +10579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>31</v>
       </c>
@@ -10621,7 +10623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>31</v>
       </c>
@@ -10665,7 +10667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -10709,7 +10711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>32</v>
       </c>
@@ -10717,7 +10719,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>32</v>
       </c>
@@ -10725,7 +10727,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>32</v>
       </c>
@@ -10733,7 +10735,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>32</v>
       </c>
@@ -10741,7 +10743,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>33</v>
       </c>
@@ -10749,7 +10751,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>33</v>
       </c>
@@ -10757,7 +10759,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>33</v>
       </c>
@@ -10765,7 +10767,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>33</v>
       </c>
@@ -10773,7 +10775,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -10781,7 +10783,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -10789,7 +10791,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -10797,7 +10799,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -10873,7 +10875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -10908,7 +10910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -10943,7 +10945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -10978,7 +10980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>36</v>
       </c>
@@ -11013,7 +11015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -11057,7 +11059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -11101,7 +11103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -11145,7 +11147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>37</v>
       </c>
@@ -11189,7 +11191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>38</v>
       </c>
@@ -11233,7 +11235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>38</v>
       </c>
@@ -11277,7 +11279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>38</v>
       </c>
@@ -11321,7 +11323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>38</v>
       </c>
@@ -11365,7 +11367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>39</v>
       </c>
@@ -11373,7 +11375,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>39</v>
       </c>
@@ -11381,7 +11383,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>39</v>
       </c>
@@ -11389,7 +11391,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>39</v>
       </c>
@@ -11397,7 +11399,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>40</v>
       </c>
@@ -11405,7 +11407,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>40</v>
       </c>
@@ -11413,7 +11415,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>40</v>
       </c>
@@ -11421,7 +11423,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>40</v>
       </c>
@@ -11429,7 +11431,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>41</v>
       </c>
@@ -11437,7 +11439,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>41</v>
       </c>
@@ -11445,7 +11447,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>41</v>
       </c>
@@ -11453,7 +11455,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>41</v>
       </c>
@@ -11461,7 +11463,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>42</v>
       </c>
@@ -11469,7 +11471,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -11477,7 +11479,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>42</v>
       </c>
@@ -11485,7 +11487,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>42</v>
       </c>
@@ -11493,7 +11495,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -11528,7 +11530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>43</v>
       </c>
@@ -11563,7 +11565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>43</v>
       </c>
@@ -11598,7 +11600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>43</v>
       </c>
@@ -11633,7 +11635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>44</v>
       </c>
@@ -11668,7 +11670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>44</v>
       </c>
@@ -11703,7 +11705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>44</v>
       </c>
@@ -11738,7 +11740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>44</v>
       </c>
@@ -11773,7 +11775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>45</v>
       </c>
@@ -11808,7 +11810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>45</v>
       </c>
@@ -11843,7 +11845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>45</v>
       </c>
@@ -11878,7 +11880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -11913,7 +11915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>46</v>
       </c>
@@ -11948,7 +11950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>46</v>
       </c>
@@ -11983,7 +11985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>46</v>
       </c>
@@ -12018,7 +12020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>46</v>
       </c>
@@ -12053,7 +12055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>47</v>
       </c>
@@ -12070,7 +12072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>47</v>
       </c>
@@ -12087,7 +12089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>47</v>
       </c>
@@ -12104,7 +12106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>47</v>
       </c>
@@ -12121,7 +12123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>48</v>
       </c>
@@ -12129,7 +12131,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>48</v>
       </c>
@@ -12137,7 +12139,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>48</v>
       </c>
@@ -12145,7 +12147,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>48</v>
       </c>
@@ -12153,7 +12155,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>49</v>
       </c>
@@ -12161,7 +12163,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>49</v>
       </c>
@@ -12169,7 +12171,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>49</v>
       </c>
@@ -12177,7 +12179,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>49</v>
       </c>
@@ -12185,7 +12187,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>267</v>
       </c>
@@ -12193,7 +12195,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>267</v>
       </c>
@@ -12201,7 +12203,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>267</v>
       </c>
@@ -12209,7 +12211,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>267</v>
       </c>
@@ -12217,7 +12219,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>50</v>
       </c>
@@ -12234,7 +12236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>50</v>
       </c>
@@ -12251,7 +12253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>50</v>
       </c>
@@ -12268,7 +12270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>50</v>
       </c>
@@ -12285,7 +12287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>51</v>
       </c>
@@ -12302,7 +12304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>51</v>
       </c>
@@ -12319,7 +12321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>51</v>
       </c>
@@ -12336,7 +12338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>51</v>
       </c>
@@ -12354,6 +12356,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z225" xr:uid="{6C05537C-F625-4982-862A-EDC178E68A3B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="NL00"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22496,8 +22505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9223919-6667-4778-A6E5-4BD08A57D9D3}">
   <dimension ref="A3:BB42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS29" sqref="AS29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38389,38 +38398,38 @@
       <c r="E4" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="82" t="s">
+      <c r="L4" s="88" t="s">
         <v>73</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="89" t="s">
         <v>77</v>
       </c>
       <c r="R4" s="2"/>
@@ -38431,10 +38440,10 @@
       <c r="V4" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="W4" s="100" t="s">
+      <c r="W4" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="X4" s="100" t="s">
+      <c r="X4" s="82" t="s">
         <v>116</v>
       </c>
     </row>
@@ -38443,48 +38452,48 @@
       <c r="C5" s="81"/>
       <c r="D5" s="81"/>
       <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="U5" s="81"/>
       <c r="V5" s="81"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="81"/>
       <c r="C6" s="81"/>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="U6" s="81"/>
       <c r="V6" s="81"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
     </row>
     <row r="7" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="81"/>
@@ -40214,59 +40223,59 @@
       <c r="A36" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="86" t="s">
+      <c r="C36" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="92" t="s">
+      <c r="E36" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="95" t="s">
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="103" t="s">
+      <c r="J36" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="K36" s="103" t="s">
+      <c r="K36" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="L36" s="103" t="s">
+      <c r="L36" s="85" t="s">
         <v>82</v>
       </c>
       <c r="N36" s="74"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="84"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="98" t="s">
+      <c r="B37" s="94"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="99"/>
-      <c r="G37" s="98" t="s">
+      <c r="F37" s="109"/>
+      <c r="G37" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="H37" s="99"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
       <c r="Q37" s="75"/>
       <c r="R37" s="75"/>
       <c r="S37" s="75"/>
     </row>
     <row r="38" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="84"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="90"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="100"/>
       <c r="E38" s="3" t="s">
         <v>85</v>
       </c>
@@ -40279,18 +40288,18 @@
       <c r="H38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I38" s="97"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="109"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="92"/>
       <c r="Q38" s="75"/>
       <c r="R38" s="75"/>
       <c r="S38" s="75"/>
     </row>
     <row r="39" spans="1:19" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="85"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="91"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="101"/>
       <c r="E39" s="3" t="s">
         <v>88</v>
       </c>
@@ -41236,19 +41245,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="K36:K38"/>
-    <mergeCell ref="L36:L38"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
@@ -41265,6 +41261,19 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="L36:L38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48295,6 +48304,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AAB2DAEDC4BA144CA95FA5C923F1A8F9" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e59e26d1a5e7ba1cf6b11b19c124e469">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f19a15b6-bb58-4150-b969-ccb650b8470a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c67b60027adbde9c14c6a386155ac0c3" ns2:_="">
     <xsd:import namespace="f19a15b6-bb58-4150-b969-ccb650b8470a"/>
@@ -48429,15 +48447,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -48447,6 +48456,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{627BC272-BF58-4719-8F00-4DA1BE400A7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECD9DC03-E00C-4F04-A02D-64A83575467F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -48460,14 +48477,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{627BC272-BF58-4719-8F00-4DA1BE400A7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
